--- a/resources/popular-languages.xlsx
+++ b/resources/popular-languages.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15619\IBM Data Analyst Professional Certificate\Capstone\job_trends_analysis\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8BC359-82B2-4799-9F3E-7C5A2DD423F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DF0182-AABD-4BAE-92C5-456CE3DAEC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popular-languages" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
@@ -624,9 +624,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -635,13 +635,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Annual Salary for</a:t>
+              <a:t>Average Annual Salary for Programming Languages</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Programming Languages</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -658,9 +653,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -693,9 +688,32 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0070C0"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,34 +726,34 @@
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>Swift</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Python</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>Java</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>R</c:v>
+                  <c:v>C++</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Javascript</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Swift</c:v>
+                  <c:v>Java</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>C++</c:v>
+                  <c:v>Go</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>C#</c:v>
+                  <c:v>R</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>PHP</c:v>
+                  <c:v>C#</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SQL</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Go</c:v>
+                  <c:v>PHP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -747,34 +765,34 @@
                 <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>130801</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>114383</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>101013</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>92037</c:v>
+                  <c:v>113865</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>110981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130801</c:v>
+                  <c:v>101013</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113865</c:v>
+                  <c:v>94082</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88726</c:v>
+                  <c:v>92037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84727</c:v>
+                  <c:v>88726</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>84793</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94082</c:v>
+                  <c:v>84727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -786,7 +804,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -794,8 +811,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="986390944"/>
         <c:axId val="986396352"/>
       </c:barChart>
@@ -813,9 +830,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -842,9 +859,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -863,7 +880,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -879,7 +896,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -907,7 +924,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -924,9 +941,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx2"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -953,9 +970,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:schemeClr val="tx2"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -984,7 +1001,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1023,7 +1040,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1037,11 +1054,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1095,33 +1108,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1136,7 +1143,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1144,7 +1151,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1152,17 +1159,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -1171,9 +1175,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -1196,35 +1199,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1233,33 +1236,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="12700">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt2"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1275,21 +1277,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1323,17 +1320,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1342,14 +1339,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1361,26 +1358,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1394,96 +1385,99 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1491,17 +1485,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -1510,12 +1504,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1524,14 +1515,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1540,10 +1531,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -1552,7 +1540,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1573,10 +1561,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1585,14 +1570,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1934,11 +1913,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1957,26 +1936,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>114383</v>
+        <v>130801</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>101013</v>
+        <v>114383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>92037</v>
+        <v>113865</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1989,34 +1968,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>130801</v>
+        <v>101013</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>113865</v>
+        <v>94082</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>88726</v>
+        <v>92037</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>84727</v>
+        <v>88726</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2029,13 +2008,16 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>94082</v>
+        <v>84727</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition descending="1" ref="B2:B11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
